--- a/windnode_kwum/scenarios/data/reference_scenario_curtailment.xlsx
+++ b/windnode_kwum/scenarios/data/reference_scenario_curtailment.xlsx
@@ -108,7 +108,7 @@
     <author>Elisa Gaudchau</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8896" uniqueCount="8863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8925" uniqueCount="8872">
   <si>
     <t>label</t>
   </si>
@@ -26851,18 +26851,12 @@
     <t>bus_th_pr</t>
   </si>
   <si>
-    <t>heat_district_pr</t>
-  </si>
-  <si>
     <t>P2H_pr</t>
   </si>
   <si>
     <t>bus_th_sch</t>
   </si>
   <si>
-    <t>heat_district_sch</t>
-  </si>
-  <si>
     <t>P2H_sch</t>
   </si>
   <si>
@@ -26870,6 +26864,39 @@
   </si>
   <si>
     <t>storage_th_sch</t>
+  </si>
+  <si>
+    <t>bus_gas_sch</t>
+  </si>
+  <si>
+    <t>district_heating_pr</t>
+  </si>
+  <si>
+    <t>district_heating_sch</t>
+  </si>
+  <si>
+    <t>storage_el</t>
+  </si>
+  <si>
+    <t>bus_gas_pr</t>
+  </si>
+  <si>
+    <t>bus_curt</t>
+  </si>
+  <si>
+    <t>boiler_pr</t>
+  </si>
+  <si>
+    <t>boiler_sch</t>
+  </si>
+  <si>
+    <t>negative_spot</t>
+  </si>
+  <si>
+    <t>heat_chp_sch</t>
+  </si>
+  <si>
+    <t>heat_chp_pr</t>
   </si>
 </sst>
 </file>
@@ -27004,7 +27031,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -27015,8 +27042,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27049,16 +27090,31 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -71575,10 +71631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -71615,7 +71671,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -71629,13 +71685,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8858</v>
+        <v>8857</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -71655,7 +71711,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -71664,6 +71720,66 @@
         <v>200</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8861</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8865</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8866</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -71685,10 +71801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -71717,6 +71833,52 @@
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="30" t="s">
+        <v>8871</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8865</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>8855</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="30" t="s">
+        <v>8870</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>8861</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>8857</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -71776,10 +71938,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -71809,7 +71971,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8853</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -71818,60 +71980,43 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>29.1</v>
+        <v>35</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
+      <c r="C3" s="6" t="s">
+        <v>8857</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>8859</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="8" t="s">
+        <v>8862</v>
+      </c>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8858</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="8" t="s">
+        <v>8855</v>
+      </c>
+      <c r="D4" s="8">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>8856</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8855</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -71999,10 +72144,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH3"/>
+  <dimension ref="A1:AMH4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -72060,7 +72205,7 @@
     </row>
     <row r="2" spans="1:1022">
       <c r="A2" t="s">
-        <v>8861</v>
+        <v>8859</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -72098,13 +72243,13 @@
     </row>
     <row r="3" spans="1:1022">
       <c r="A3" t="s">
-        <v>8862</v>
+        <v>8860</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8858</v>
+        <v>8857</v>
       </c>
       <c r="D3">
         <v>3300000</v>
@@ -72131,6 +72276,44 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1022">
+      <c r="A4" t="s">
+        <v>8864</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>3300000</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <v>0.95</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -72152,10 +72335,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -72196,16 +72379,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>8860</v>
+        <v>8858</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>8866</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8858</v>
+        <v>8857</v>
       </c>
       <c r="E2" s="9">
         <v>0.9</v>
@@ -72222,13 +72405,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>8857</v>
+        <v>8856</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>8866</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8855</v>
@@ -72243,6 +72426,162 @@
         <v>0.05</v>
       </c>
       <c r="H3" s="9">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>8867</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8865</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8855</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="7">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30" t="s">
+        <v>8868</v>
+      </c>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>8861</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>8857</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="30">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30" t="s">
+        <v>8853</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>8866</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="30">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30" t="s">
+        <v>8869</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>8866</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="30">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30" t="s">
+        <v>8871</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>8865</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>8855</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="30">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30" t="s">
+        <v>8870</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>8861</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>8857</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="30">
         <v>550000</v>
       </c>
     </row>
